--- a/BD_Actualizada.xlsx
+++ b/BD_Actualizada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iortega\Entornos_Virtuales\Py_Gustavo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iortega\Entornos_Virtuales\Py_Pronosticos_FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C17F2C-CD19-42C3-9821-712F4D6C2CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD3AD8E-FDC1-4269-962F-C3E6E539D08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9BF2F428-04D8-442D-81EE-88135202A5A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BF2F428-04D8-442D-81EE-88135202A5A8}"/>
   </bookViews>
   <sheets>
     <sheet name="RUNT_Total" sheetId="1" r:id="rId1"/>
@@ -853,7 +853,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B255" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M268" sqref="M268"/>
+      <selection pane="bottomRight" activeCell="A269" sqref="A269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11762,8 +11762,8 @@
       <c r="A268" s="2">
         <v>44986</v>
       </c>
-      <c r="B268" s="14">
-        <v>0.11353126106</v>
+      <c r="B268" s="15">
+        <v>0.10032543955000001</v>
       </c>
       <c r="C268" s="4">
         <v>0.13339999999999999</v>
@@ -11803,18 +11803,42 @@
       <c r="A269" s="2">
         <v>45017</v>
       </c>
-      <c r="B269" s="1"/>
-      <c r="C269" s="1"/>
-      <c r="D269" s="10"/>
-      <c r="E269" s="10"/>
-      <c r="F269" s="1"/>
-      <c r="G269" s="1"/>
-      <c r="H269" s="1"/>
-      <c r="I269" s="1"/>
-      <c r="J269" s="10"/>
-      <c r="K269" s="10"/>
-      <c r="L269" s="10"/>
-      <c r="M269" s="10"/>
+      <c r="B269" s="14">
+        <v>0.10032543955000001</v>
+      </c>
+      <c r="C269" s="4">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="D269" s="10">
+        <v>4543</v>
+      </c>
+      <c r="E269" s="10">
+        <v>1300000</v>
+      </c>
+      <c r="F269" s="4">
+        <v>-0.28800000000000003</v>
+      </c>
+      <c r="G269" s="4">
+        <v>-0.183</v>
+      </c>
+      <c r="H269" s="4">
+        <v>-0.44700000000000001</v>
+      </c>
+      <c r="I269" s="1">
+        <v>79.44</v>
+      </c>
+      <c r="J269" s="10">
+        <v>23</v>
+      </c>
+      <c r="K269" s="10">
+        <v>2</v>
+      </c>
+      <c r="L269" s="10">
+        <v>51291</v>
+      </c>
+      <c r="M269" s="10">
+        <v>9700</v>
+      </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
@@ -12170,10 +12194,10 @@
   <dimension ref="A1:Z289"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L259" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B233" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A268" sqref="A268"/>
+      <selection pane="bottomRight" activeCell="B269" sqref="B269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28578,7 +28602,7 @@
         <v>252</v>
       </c>
       <c r="T266" s="10">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="U266" s="10">
         <v>366</v>
@@ -28683,8 +28707,8 @@
       <c r="A268" s="2">
         <v>44986</v>
       </c>
-      <c r="B268" s="14">
-        <v>0.11353126106</v>
+      <c r="B268" s="15">
+        <v>0.10032543955000001</v>
       </c>
       <c r="C268" s="4">
         <v>0.13339999999999999</v>
@@ -28756,38 +28780,88 @@
         <v>459</v>
       </c>
       <c r="Z268" s="10">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="269" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>45017</v>
       </c>
-      <c r="B269" s="1"/>
-      <c r="C269" s="1"/>
-      <c r="D269" s="1"/>
-      <c r="E269" s="1"/>
-      <c r="F269" s="1"/>
-      <c r="G269" s="1"/>
-      <c r="H269" s="1"/>
-      <c r="I269" s="1"/>
-      <c r="J269" s="10"/>
-      <c r="K269" s="10"/>
-      <c r="L269" s="10"/>
-      <c r="M269" s="10"/>
-      <c r="N269" s="10"/>
-      <c r="O269" s="10"/>
-      <c r="P269" s="10"/>
-      <c r="Q269" s="10"/>
-      <c r="R269" s="10"/>
-      <c r="S269" s="10"/>
-      <c r="T269" s="10"/>
-      <c r="U269" s="10"/>
-      <c r="V269" s="10"/>
-      <c r="W269" s="10"/>
-      <c r="X269" s="10"/>
-      <c r="Y269" s="10"/>
-      <c r="Z269" s="10"/>
+      <c r="B269" s="14">
+        <v>0.10032543955000001</v>
+      </c>
+      <c r="C269" s="4">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="D269" s="1">
+        <v>4543</v>
+      </c>
+      <c r="E269" s="10">
+        <v>1300000</v>
+      </c>
+      <c r="F269" s="4">
+        <v>-0.28800000000000003</v>
+      </c>
+      <c r="G269" s="4">
+        <v>-0.183</v>
+      </c>
+      <c r="H269" s="4">
+        <v>-0.44700000000000001</v>
+      </c>
+      <c r="I269" s="1">
+        <v>79.44</v>
+      </c>
+      <c r="J269" s="10">
+        <v>23</v>
+      </c>
+      <c r="K269" s="10">
+        <v>2</v>
+      </c>
+      <c r="L269" s="10">
+        <v>51291</v>
+      </c>
+      <c r="M269" s="10">
+        <v>9700</v>
+      </c>
+      <c r="N269" s="10">
+        <v>3</v>
+      </c>
+      <c r="O269" s="10">
+        <v>1818</v>
+      </c>
+      <c r="P269" s="10">
+        <v>1651</v>
+      </c>
+      <c r="Q269" s="10">
+        <v>1344</v>
+      </c>
+      <c r="R269" s="10">
+        <v>2000</v>
+      </c>
+      <c r="S269" s="10">
+        <v>239</v>
+      </c>
+      <c r="T269" s="10">
+        <v>15</v>
+      </c>
+      <c r="U269" s="10">
+        <v>345</v>
+      </c>
+      <c r="V269" s="10">
+        <v>932</v>
+      </c>
+      <c r="W269" s="10">
+        <v>465</v>
+      </c>
+      <c r="X269" s="10">
+        <v>94</v>
+      </c>
+      <c r="Y269" s="10">
+        <v>329</v>
+      </c>
+      <c r="Z269" s="10">
+        <v>37</v>
+      </c>
     </row>
     <row r="270" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A270" s="2">

--- a/BD_Actualizada.xlsx
+++ b/BD_Actualizada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iortega\Entornos_Virtuales\Py_Pronosticos_FINAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Informatica\Analisis Datos\Script_Analitica_Datos\Dockers\Pronosticos_MC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD3AD8E-FDC1-4269-962F-C3E6E539D08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7AF0EA-E7B3-470C-9EC1-C3908FE656FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BF2F428-04D8-442D-81EE-88135202A5A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9BF2F428-04D8-442D-81EE-88135202A5A8}"/>
   </bookViews>
   <sheets>
     <sheet name="RUNT_Total" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,13 +448,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -489,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -525,9 +518,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -849,11 +839,11 @@
   </sheetPr>
   <dimension ref="A1:M289"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B255" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A269" sqref="A269"/>
+      <selection pane="bottomRight" activeCell="B269" sqref="B269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11721,7 +11711,7 @@
       <c r="A267" s="2">
         <v>44958</v>
       </c>
-      <c r="B267" s="15">
+      <c r="B267" s="14">
         <v>0.11353126106</v>
       </c>
       <c r="C267" s="4">
@@ -11762,7 +11752,7 @@
       <c r="A268" s="2">
         <v>44986</v>
       </c>
-      <c r="B268" s="15">
+      <c r="B268" s="14">
         <v>0.10032543955000001</v>
       </c>
       <c r="C268" s="4">
@@ -11804,7 +11794,7 @@
         <v>45017</v>
       </c>
       <c r="B269" s="14">
-        <v>0.10032543955000001</v>
+        <v>0.10724700483000001</v>
       </c>
       <c r="C269" s="4">
         <v>0.12820000000000001</v>
@@ -12193,8 +12183,8 @@
   </sheetPr>
   <dimension ref="A1:Z289"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B233" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B245" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B269" sqref="B269"/>
@@ -28627,7 +28617,7 @@
       <c r="A267" s="2">
         <v>44958</v>
       </c>
-      <c r="B267" s="15">
+      <c r="B267" s="14">
         <v>0.11353126106</v>
       </c>
       <c r="C267" s="4">
@@ -28707,7 +28697,7 @@
       <c r="A268" s="2">
         <v>44986</v>
       </c>
-      <c r="B268" s="15">
+      <c r="B268" s="14">
         <v>0.10032543955000001</v>
       </c>
       <c r="C268" s="4">
@@ -28788,7 +28778,7 @@
         <v>45017</v>
       </c>
       <c r="B269" s="14">
-        <v>0.10032543955000001</v>
+        <v>0.10724700483000001</v>
       </c>
       <c r="C269" s="4">
         <v>0.12820000000000001</v>

--- a/BD_Actualizada.xlsx
+++ b/BD_Actualizada.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Informatica\Analisis Datos\Script_Analitica_Datos\Dockers\Pronosticos_MC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iortega\Entornos_Virtuales\Py_Pronosticos_FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7AF0EA-E7B3-470C-9EC1-C3908FE656FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7117FCD1-1FE8-453E-9088-DAE342B9902A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9BF2F428-04D8-442D-81EE-88135202A5A8}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,6 +451,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -482,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -518,6 +525,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -843,7 +853,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B255" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B269" sqref="B269"/>
+      <selection pane="bottomRight" activeCell="A270" sqref="A270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11834,18 +11844,42 @@
       <c r="A270" s="2">
         <v>45047</v>
       </c>
-      <c r="B270" s="1"/>
-      <c r="C270" s="1"/>
-      <c r="D270" s="10"/>
-      <c r="E270" s="10"/>
-      <c r="F270" s="1"/>
-      <c r="G270" s="1"/>
-      <c r="H270" s="1"/>
-      <c r="I270" s="1"/>
-      <c r="J270" s="10"/>
-      <c r="K270" s="10"/>
-      <c r="L270" s="10"/>
-      <c r="M270" s="10"/>
+      <c r="B270" s="15">
+        <v>0.10724700483000001</v>
+      </c>
+      <c r="C270" s="4">
+        <v>0.1236</v>
+      </c>
+      <c r="D270" s="10">
+        <v>4540</v>
+      </c>
+      <c r="E270" s="10">
+        <v>1300000</v>
+      </c>
+      <c r="F270" s="4">
+        <v>-0.22800000000000001</v>
+      </c>
+      <c r="G270" s="4">
+        <v>-0.14499999999999999</v>
+      </c>
+      <c r="H270" s="4">
+        <v>-0.35200000000000004</v>
+      </c>
+      <c r="I270" s="1">
+        <v>71.739999999999995</v>
+      </c>
+      <c r="J270" s="10">
+        <v>25</v>
+      </c>
+      <c r="K270" s="10">
+        <v>2</v>
+      </c>
+      <c r="L270" s="10">
+        <v>56864</v>
+      </c>
+      <c r="M270" s="10">
+        <v>11060</v>
+      </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
@@ -12184,10 +12218,10 @@
   <dimension ref="A1:Z289"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B245" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B246" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B269" sqref="B269"/>
+      <selection pane="bottomRight" activeCell="B270" sqref="B270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28857,31 +28891,81 @@
       <c r="A270" s="2">
         <v>45047</v>
       </c>
-      <c r="B270" s="1"/>
-      <c r="C270" s="1"/>
-      <c r="D270" s="1"/>
-      <c r="E270" s="1"/>
-      <c r="F270" s="1"/>
-      <c r="G270" s="1"/>
-      <c r="H270" s="1"/>
-      <c r="I270" s="1"/>
-      <c r="J270" s="10"/>
-      <c r="K270" s="10"/>
-      <c r="L270" s="10"/>
-      <c r="M270" s="10"/>
-      <c r="N270" s="10"/>
-      <c r="O270" s="10"/>
-      <c r="P270" s="10"/>
-      <c r="Q270" s="10"/>
-      <c r="R270" s="10"/>
-      <c r="S270" s="10"/>
-      <c r="T270" s="10"/>
-      <c r="U270" s="10"/>
-      <c r="V270" s="10"/>
-      <c r="W270" s="10"/>
-      <c r="X270" s="10"/>
-      <c r="Y270" s="10"/>
-      <c r="Z270" s="10"/>
+      <c r="B270" s="15">
+        <v>0.10724700483000001</v>
+      </c>
+      <c r="C270" s="4">
+        <v>0.1236</v>
+      </c>
+      <c r="D270" s="1">
+        <v>4540</v>
+      </c>
+      <c r="E270" s="10">
+        <v>1300000</v>
+      </c>
+      <c r="F270" s="4">
+        <v>-0.22800000000000001</v>
+      </c>
+      <c r="G270" s="4">
+        <v>-0.14499999999999999</v>
+      </c>
+      <c r="H270" s="4">
+        <v>-0.35200000000000004</v>
+      </c>
+      <c r="I270" s="1">
+        <v>71.739999999999995</v>
+      </c>
+      <c r="J270" s="10">
+        <v>25</v>
+      </c>
+      <c r="K270" s="10">
+        <v>2</v>
+      </c>
+      <c r="L270" s="10">
+        <v>56864</v>
+      </c>
+      <c r="M270" s="10">
+        <v>11060</v>
+      </c>
+      <c r="N270" s="10">
+        <v>2</v>
+      </c>
+      <c r="O270" s="10">
+        <v>2245</v>
+      </c>
+      <c r="P270" s="10">
+        <v>1776</v>
+      </c>
+      <c r="Q270" s="10">
+        <v>1562</v>
+      </c>
+      <c r="R270" s="10">
+        <v>1376</v>
+      </c>
+      <c r="S270" s="10">
+        <v>281</v>
+      </c>
+      <c r="T270" s="10">
+        <v>24</v>
+      </c>
+      <c r="U270" s="10">
+        <v>332</v>
+      </c>
+      <c r="V270" s="10">
+        <v>950</v>
+      </c>
+      <c r="W270" s="10">
+        <v>534</v>
+      </c>
+      <c r="X270" s="10">
+        <v>92</v>
+      </c>
+      <c r="Y270" s="10">
+        <v>352</v>
+      </c>
+      <c r="Z270" s="10">
+        <v>31</v>
+      </c>
     </row>
     <row r="271" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
@@ -29456,6 +29540,7 @@
   </sheetData>
   <autoFilter ref="A1:Z289" xr:uid="{09ED62CB-FB8D-4B89-B999-7E5CAB45126A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>